--- a/sample_output_format.xlsx
+++ b/sample_output_format.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashank\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>#</t>
   </si>
@@ -48,13 +43,161 @@
   </si>
   <si>
     <t>Benefits provided (Need to be a set of choices like {pension, equipments, &lt;other such options&gt;} )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atal Pension Yojana </t>
+  </si>
+  <si>
+    <t>Central</t>
+  </si>
+  <si>
+    <t>Atal Pension Yojana is a government-backed pension scheme in India targeted at the unorganised sector.</t>
+  </si>
+  <si>
+    <t>tal Pension Yojana (APY) is open to all bank account holders who are not members of any statutory social security scheme</t>
+  </si>
+  <si>
+    <t>Fixed pension for the subscribers ranging between Rs. 1000 to Rs. 5000, if he joins and contributes between the age of 18 years and 40 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proof of identity, proof of address, photo, document having date of birth, a savings bank account number </t>
+  </si>
+  <si>
+    <t>Pradhan Mantri Gramin Awaas Yojana</t>
+  </si>
+  <si>
+    <t>The rural housing scheme will help achieve housing for all by 2022 in Rural areas across the country.</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Housing, Rural</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> identity proof, address proof, income proof, construction certificates</t>
+  </si>
+  <si>
+    <t>Janani Suraksha Yojana</t>
+  </si>
+  <si>
+    <t>Mother Care</t>
+  </si>
+  <si>
+    <t>One-time cash incentive to pregnant women for institutional/home births through skilled assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Government scheme proposed by the Government of India. </t>
+  </si>
+  <si>
+    <t>Identify pregnant woman as a beneficiary of the scheme and report or facilitate registration</t>
+  </si>
+  <si>
+    <t>Central Government Health Scheme</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the objective of providing comprehensive medical care facilities to Central Government employees, pensioners </t>
+  </si>
+  <si>
+    <t>Central Govt. employees</t>
+  </si>
+  <si>
+    <t>Application form duly filled and verified,Photographs of all family members,Residence Proof.</t>
+  </si>
+  <si>
+    <t>comprehensive medical care facilities to Central Government employees and their family members</t>
+  </si>
+  <si>
+    <t>Digital India Programme</t>
+  </si>
+  <si>
+    <t>Aims to ensure that government services are available to citizens electronically and people get benefited from the latest information and communication technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaign launched by the Government of India to ensure that Government services are made available to citizens electronically by improved online infrastructure and by increasing Internet connectivity or by making the country digitally empowered in the field of technology.</t>
+  </si>
+  <si>
+    <t>Applicant must have attained the age of 18 years,Person should preferably have passed the Matriculation Level Examination or equivalent from recognized board.</t>
+  </si>
+  <si>
+    <t>Digitally Empowered Nation</t>
+  </si>
+  <si>
+    <t>Deen Dayal Upadhyaya Gram Jyoti Yojana</t>
+  </si>
+  <si>
+    <t>Rural Power Supply</t>
+  </si>
+  <si>
+    <t>It is a Government of India program aimed at providing 24x7 uninterrupted power supply to all homes in Rural India</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Government of India scheme designed to provide continuous power supply to rural India.</t>
+  </si>
+  <si>
+    <t>Integrated Child Development Services</t>
+  </si>
+  <si>
+    <t>Child Development</t>
+  </si>
+  <si>
+    <t>tackle malnutrition and health problems in children below 6 years of age and their mothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indian government welfare programme which provides food, preschool education, and primary healthcare to children under 6 years of age and their mothers.</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Kishore Vaigyanik Protsahan Yojana</t>
+  </si>
+  <si>
+    <t>Scholarship program to encourage students to take up research careers in the areas of basic sciences, engineering and medicine</t>
+  </si>
+  <si>
+    <t>scholarship program funded by the Department of Science and Technology of the Government of India, aimed at encouraging students to take up research careers</t>
+  </si>
+  <si>
+    <t>Students enrolled in an undergraduate course in Basic Sciences</t>
+  </si>
+  <si>
+    <t>Midday Meal Scheme</t>
+  </si>
+  <si>
+    <t>Health, Education</t>
+  </si>
+  <si>
+    <t>The Midday Meal Scheme is a school meal programme of the Government of India designed to improve the nutritional status of school-age children nationwide.</t>
+  </si>
+  <si>
+    <t>Lunch (free of cost) to school-children on all working days</t>
+  </si>
+  <si>
+    <t>National Literacy Mission Programme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make 80 million adults in the age group of 15 – 35 literate
+</t>
+  </si>
+  <si>
+    <t>age group of 15 - 35 over an eighty-year period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The National Literacy Mission (NLM) is a nationwide program started by Government of India in 1988.[1] It aims to educate 80 million adults </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +215,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -162,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -176,6 +325,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,30 +598,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -497,107 +648,263 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="D4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
